--- a/src/premium/Config/filtres_1.xlsx
+++ b/src/premium/Config/filtres_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remyadda/Desktop/AD/Projets/Linkedin_robot/Algos/Premium_version/Config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remyadda/Desktop/AD/Projets/AD_serveur/src/premium/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5019A1-EF93-B245-BD6A-70CCD365873D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6E980A-F44D-AE49-B8E9-3C23A64AC010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Réponses au formulaire 1" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,6 @@
     <t>TYPE D'ENTREPRISE</t>
   </si>
   <si>
-    <t>paris</t>
-  </si>
-  <si>
     <t>Français</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>11-50</t>
+  </si>
+  <si>
+    <t>Lyon</t>
   </si>
 </sst>
 </file>
@@ -357,7 +357,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -420,28 +420,28 @@
         <v>44122.638797430554</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
